--- a/AAII_Financials/Quarterly/TYHT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TYHT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>TYHT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,244 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F8" s="3">
         <v>7000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>7500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>7700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>8400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>7600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>8600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>13300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>14100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>8100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>7900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>11200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>6400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F9" s="3">
         <v>5400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>5400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>5300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>6000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>5500</v>
       </c>
       <c r="I9" s="3">
         <v>6000</v>
       </c>
       <c r="J9" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K9" s="3">
+        <v>6000</v>
+      </c>
+      <c r="L9" s="3">
         <v>8100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>9300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>5700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>5800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>5300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>7300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>4500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F10" s="3">
         <v>1600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>4800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>3900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,34 +1022,40 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>200</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>200</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>2200</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>2200</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1024,11 +1063,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1036,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F17" s="3">
         <v>8900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>7200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>9100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>7800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>9600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>10900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,19 +1277,21 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>400</v>
-      </c>
       <c r="F20" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>400</v>
@@ -1233,81 +1300,93 @@
         <v>500</v>
       </c>
       <c r="I20" s="3">
+        <v>400</v>
+      </c>
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>500</v>
+      </c>
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-800</v>
       </c>
       <c r="G21" s="3">
         <v>1100</v>
       </c>
       <c r="H21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I21" s="3">
         <v>1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>4900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>4000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>3300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,66 +1432,78 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>3200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
       </c>
       <c r="F24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
@@ -1421,34 +1512,40 @@
         <v>200</v>
       </c>
       <c r="I24" s="3">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="J24" s="3">
         <v>200</v>
       </c>
       <c r="K24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L24" s="3">
+        <v>200</v>
+      </c>
+      <c r="M24" s="3">
         <v>300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>400</v>
       </c>
       <c r="N24" s="3">
         <v>300</v>
       </c>
       <c r="O24" s="3">
+        <v>400</v>
+      </c>
+      <c r="P24" s="3">
         <v>300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>200</v>
       </c>
       <c r="Q24" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>200</v>
+      </c>
+      <c r="S24" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,19 +1909,25 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>-400</v>
-      </c>
       <c r="F32" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-400</v>
@@ -1797,81 +1936,93 @@
         <v>-500</v>
       </c>
       <c r="I32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>4600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>3600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>4600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>3600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,84 +2225,92 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>42100</v>
+      </c>
+      <c r="F41" s="3">
         <v>37600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>35300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>34000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>35700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>31200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>31500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>28400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>29400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>27700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>23200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>23700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>23700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>28700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="3">
-        <v>200</v>
-      </c>
-      <c r="L42" s="3">
-        <v>200</v>
       </c>
       <c r="M42" s="3">
         <v>200</v>
@@ -2143,201 +2322,231 @@
         <v>200</v>
       </c>
       <c r="P42" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>200</v>
+      </c>
+      <c r="R42" s="3">
         <v>100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F43" s="3">
         <v>9500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>9900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>11100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>13100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>17800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>15900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>25300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>16600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>14200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>16300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>15600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>14300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>9600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F44" s="3">
         <v>2000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H44" s="3">
-        <v>2300</v>
       </c>
       <c r="I44" s="3">
         <v>2400</v>
       </c>
       <c r="J44" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K44" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L44" s="3">
         <v>2800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>2300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>4000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F45" s="3">
         <v>9700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>13500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>14000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>8100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>5800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>6400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>4800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>60600</v>
+      </c>
+      <c r="F46" s="3">
         <v>58900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>61000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>61600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>59300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>57100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>56200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>61300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>52000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>47400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>44700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>42800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>41000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>43400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2348,90 +2557,102 @@
         <v>6700</v>
       </c>
       <c r="F47" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G47" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H47" s="3">
         <v>6900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>6600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>7200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>9300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>6700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>6300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>5900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>5700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>5400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>5200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>4900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F48" s="3">
         <v>13200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>10700</v>
-      </c>
-      <c r="F48" s="3">
-        <v>11200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>11100</v>
       </c>
       <c r="H48" s="3">
         <v>11200</v>
       </c>
       <c r="I48" s="3">
-        <v>11700</v>
+        <v>11100</v>
       </c>
       <c r="J48" s="3">
-        <v>12500</v>
+        <v>11200</v>
       </c>
       <c r="K48" s="3">
         <v>11700</v>
       </c>
       <c r="L48" s="3">
+        <v>12500</v>
+      </c>
+      <c r="M48" s="3">
+        <v>11700</v>
+      </c>
+      <c r="N48" s="3">
         <v>10400</v>
-      </c>
-      <c r="M48" s="3">
-        <v>10300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>10300</v>
       </c>
       <c r="O48" s="3">
         <v>10300</v>
       </c>
       <c r="P48" s="3">
+        <v>10300</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>10300</v>
+      </c>
+      <c r="R48" s="3">
         <v>10900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2442,43 +2663,49 @@
         <v>2300</v>
       </c>
       <c r="F49" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="G49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H49" s="3">
         <v>2400</v>
       </c>
       <c r="I49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K49" s="3">
         <v>2500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>4800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>4700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1400</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1300</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1300</v>
       </c>
       <c r="O49" s="3">
         <v>1300</v>
       </c>
       <c r="P49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R49" s="3">
         <v>1400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
+        <v>400</v>
+      </c>
+      <c r="G52" s="3">
         <v>3100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>4200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>6200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>6200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>5800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>5900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>4200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>83100</v>
+      </c>
+      <c r="F54" s="3">
         <v>81100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>83700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>85300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>82500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>81100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>83100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>89300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>78900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>71300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>68300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>65600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>63800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>64700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2762,43 +3023,49 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2806,140 +3073,158 @@
         <v>2300</v>
       </c>
       <c r="E58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G58" s="3">
         <v>2400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F59" s="3">
         <v>7400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>7900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>7200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>5200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E60" s="3">
         <v>10000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G60" s="3">
         <v>10500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>10900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>8600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>8000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>9500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>10500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>7600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2997,10 +3288,10 @@
         <v>600</v>
       </c>
       <c r="F62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H62" s="3">
         <v>700</v>
@@ -3009,22 +3300,22 @@
         <v>700</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
+        <v>700</v>
+      </c>
+      <c r="K62" s="3">
+        <v>700</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3032,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F66" s="3">
         <v>11700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>12200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>12700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>10300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>9700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>11300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>11600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>8600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>49300</v>
+      </c>
+      <c r="F72" s="3">
         <v>49100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>50900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>50400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>51500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>50800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>50100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>52000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>47400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>43800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>42500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>40200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>38300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>35400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>66300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>71300</v>
+      </c>
+      <c r="F76" s="3">
         <v>69400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>71500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>72700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>72200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>71400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>71800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>77600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>70000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>64900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>62200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>59100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>56700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>56100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>4600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>3600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,28 +4233,28 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -3869,13 +4266,19 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F89" s="3">
         <v>2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>2100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>4600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>4500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,37 +4614,39 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>600</v>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>600</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
@@ -4222,8 +4663,14 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,13 +4769,19 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4331,40 +4790,46 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>1100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2800</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +5055,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F100" s="3">
         <v>1600</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1600</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>6300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>900</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F102" s="3">
         <v>2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>4400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>3100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>4600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-4900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>6700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TYHT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TYHT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>TYHT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,270 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="3">
         <v>3700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>7900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>7000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>7500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>7700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>8400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>7600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>8600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>13300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>14100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>7800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>8100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>7900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>11200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>6400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E9" s="3">
         <v>3300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G9" s="3">
         <v>5500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>5400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>5400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>5300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>6000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>5500</v>
       </c>
       <c r="K9" s="3">
         <v>6000</v>
       </c>
       <c r="L9" s="3">
+        <v>5500</v>
+      </c>
+      <c r="M9" s="3">
+        <v>6000</v>
+      </c>
+      <c r="N9" s="3">
         <v>8100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>9300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>5700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>5800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>5300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>7300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>5200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>4800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>3900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,40 +1062,46 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>2100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>200</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>2200</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>2200</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1069,11 +1109,11 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1081,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F17" s="3">
         <v>7400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>7700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>8900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>7200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>9100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>7800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>9600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>9400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>10900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>6300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>8700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>5300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>3900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,16 +1356,16 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>500</v>
       </c>
       <c r="I20" s="3">
         <v>400</v>
@@ -1306,87 +1374,99 @@
         <v>500</v>
       </c>
       <c r="K20" s="3">
+        <v>400</v>
+      </c>
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>500</v>
+      </c>
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-800</v>
       </c>
       <c r="I21" s="3">
         <v>1100</v>
       </c>
       <c r="J21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>4900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>4000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>3300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,61 +1518,73 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>3200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1500,16 +1592,16 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
       </c>
       <c r="H24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
@@ -1518,34 +1610,40 @@
         <v>200</v>
       </c>
       <c r="K24" s="3">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="L24" s="3">
         <v>200</v>
       </c>
       <c r="M24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N24" s="3">
+        <v>200</v>
+      </c>
+      <c r="O24" s="3">
         <v>300</v>
-      </c>
-      <c r="N24" s="3">
-        <v>300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>400</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
       </c>
       <c r="Q24" s="3">
+        <v>400</v>
+      </c>
+      <c r="R24" s="3">
         <v>300</v>
-      </c>
-      <c r="R24" s="3">
-        <v>200</v>
       </c>
       <c r="S24" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>200</v>
+      </c>
+      <c r="U24" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>4500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>2900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>4600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>3600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>2800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,16 +2064,16 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-500</v>
       </c>
       <c r="I32" s="3">
         <v>-400</v>
@@ -1942,87 +2082,99 @@
         <v>-500</v>
       </c>
       <c r="K32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>4600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>2800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>4600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>2800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2399,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>32400</v>
+      </c>
+      <c r="F41" s="3">
         <v>40600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>42100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>37600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>35300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>34000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>35700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>31200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>31500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>28400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>29400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>27700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>23200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>23700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>23700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>28700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2306,17 +2486,17 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="M42" s="3">
-        <v>200</v>
-      </c>
-      <c r="N42" s="3">
-        <v>200</v>
       </c>
       <c r="O42" s="3">
         <v>200</v>
@@ -2328,233 +2508,263 @@
         <v>200</v>
       </c>
       <c r="R42" s="3">
+        <v>200</v>
+      </c>
+      <c r="S42" s="3">
+        <v>200</v>
+      </c>
+      <c r="T42" s="3">
         <v>100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F43" s="3">
         <v>10100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>9800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>9500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>9900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>11100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>13100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>17800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>15900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>25300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>16600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>14200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>16300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>15600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>14300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>9600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F44" s="3">
         <v>1700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>2200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>2400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J44" s="3">
-        <v>2300</v>
       </c>
       <c r="K44" s="3">
         <v>2400</v>
       </c>
       <c r="L44" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M44" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N44" s="3">
         <v>2800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>2500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>4000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F45" s="3">
         <v>4700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>6100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>9700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>13500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>14000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>8100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>5800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>6400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>4800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>3000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>59500</v>
+      </c>
+      <c r="F46" s="3">
         <v>57100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>60600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>58900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>61000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>61600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>59300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>57100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>56200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>61300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>52000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>47400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>44700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>42800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>41000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>43400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6500</v>
+        <v>4700</v>
       </c>
       <c r="E47" s="3">
-        <v>6700</v>
+        <v>4500</v>
       </c>
       <c r="F47" s="3">
         <v>6500</v>
@@ -2563,104 +2773,116 @@
         <v>6700</v>
       </c>
       <c r="H47" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I47" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J47" s="3">
         <v>6900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>6600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>7200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>9300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>6700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>6300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>5900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>5700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>5400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>5200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>4900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F48" s="3">
         <v>12500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>13100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>13200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>10700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>11200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>11100</v>
       </c>
       <c r="J48" s="3">
         <v>11200</v>
       </c>
       <c r="K48" s="3">
-        <v>11700</v>
+        <v>11100</v>
       </c>
       <c r="L48" s="3">
-        <v>12500</v>
+        <v>11200</v>
       </c>
       <c r="M48" s="3">
         <v>11700</v>
       </c>
       <c r="N48" s="3">
+        <v>12500</v>
+      </c>
+      <c r="O48" s="3">
+        <v>11700</v>
+      </c>
+      <c r="P48" s="3">
         <v>10400</v>
-      </c>
-      <c r="O48" s="3">
-        <v>10300</v>
-      </c>
-      <c r="P48" s="3">
-        <v>10300</v>
       </c>
       <c r="Q48" s="3">
         <v>10300</v>
       </c>
       <c r="R48" s="3">
+        <v>10300</v>
+      </c>
+      <c r="S48" s="3">
+        <v>10300</v>
+      </c>
+      <c r="T48" s="3">
         <v>10900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E49" s="3">
         <v>2200</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2300</v>
       </c>
       <c r="F49" s="3">
         <v>2200</v>
@@ -2669,43 +2891,49 @@
         <v>2300</v>
       </c>
       <c r="H49" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="I49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J49" s="3">
         <v>2400</v>
       </c>
       <c r="K49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M49" s="3">
         <v>2500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>4800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>4700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1400</v>
-      </c>
-      <c r="O49" s="3">
-        <v>1300</v>
-      </c>
-      <c r="P49" s="3">
-        <v>1300</v>
       </c>
       <c r="Q49" s="3">
         <v>1300</v>
       </c>
       <c r="R49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T49" s="3">
         <v>1400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3044,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>4000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>4200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>6200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>6200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>5800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>5900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>4200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>79100</v>
+      </c>
+      <c r="F54" s="3">
         <v>78900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>83100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>81100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>83700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>85300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>82500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>81100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>83100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>89300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>78900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>71300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>68300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>65600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>63800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>64700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3271,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3020,7 +3282,7 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -3029,202 +3291,226 @@
         <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E58" s="3">
         <v>2300</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1700</v>
       </c>
       <c r="F58" s="3">
         <v>2300</v>
       </c>
       <c r="G58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I58" s="3">
         <v>2400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F59" s="3">
         <v>8400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>8100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>7400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>7900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>7200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F60" s="3">
         <v>10900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>10000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>10000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>10500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>10900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>8600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>8000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>9500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>10500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>6100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>7600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,16 +3562,22 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="E62" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F62" s="3">
         <v>600</v>
@@ -3294,10 +3586,10 @@
         <v>600</v>
       </c>
       <c r="H62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J62" s="3">
         <v>700</v>
@@ -3306,22 +3598,22 @@
         <v>700</v>
       </c>
       <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
+        <v>700</v>
+      </c>
+      <c r="M62" s="3">
+        <v>700</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F66" s="3">
         <v>12600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>11800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>11700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>12200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>12700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>10300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>11300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>11600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>7100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>8600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>44300</v>
+      </c>
+      <c r="F72" s="3">
         <v>45400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>49300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>49100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>50900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>50400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>51500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>50800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>50100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>52000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>47400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>43800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>42500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>40200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>38300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>35400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>65300</v>
+      </c>
+      <c r="F76" s="3">
         <v>66300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>71300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>69400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>71500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>72700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>72200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>71400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>71800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>77600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>70000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>64900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>62200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>59100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>56700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>56100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>4600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>2800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4233,34 +4631,34 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
       <c r="G83" s="3">
+        <v>500</v>
+      </c>
+      <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
@@ -4272,13 +4670,19 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>4000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>2100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>4600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>4100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>3700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4627,32 +5069,32 @@
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>600</v>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>600</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
@@ -4669,8 +5111,14 @@
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,20 +5229,26 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -4796,40 +5256,46 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>1000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>1100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-2800</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5547,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1600</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1600</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>6300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>4500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>2300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>4400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>3100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>4600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-4900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>6700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TYHT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TYHT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>TYHT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,282 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E8" s="3">
         <v>4100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E9" s="3">
         <v>3200</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3300</v>
       </c>
       <c r="F9" s="3">
         <v>3300</v>
       </c>
       <c r="G9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H9" s="3">
         <v>5500</v>
-      </c>
-      <c r="H9" s="3">
-        <v>5400</v>
       </c>
       <c r="I9" s="3">
         <v>5400</v>
       </c>
       <c r="J9" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K9" s="3">
         <v>5300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>2400</v>
       </c>
       <c r="K10" s="3">
         <v>2400</v>
       </c>
       <c r="L10" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M10" s="3">
         <v>2100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,19 +1084,22 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1088,11 +1107,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1100,11 +1119,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>2200</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1115,8 +1134,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1127,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E17" s="3">
         <v>5100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,13 +1379,14 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-4100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1362,111 +1395,117 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>500</v>
       </c>
       <c r="M20" s="3">
         <v>500</v>
       </c>
       <c r="N20" s="3">
+        <v>500</v>
+      </c>
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
-      </c>
-      <c r="P20" s="3">
-        <v>600</v>
       </c>
       <c r="Q20" s="3">
         <v>600</v>
       </c>
       <c r="R20" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="S20" s="3">
         <v>700</v>
       </c>
       <c r="T20" s="3">
+        <v>700</v>
+      </c>
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-3500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1100</v>
       </c>
       <c r="L21" s="3">
         <v>1100</v>
       </c>
       <c r="M21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,87 +1563,93 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>200</v>
@@ -1616,34 +1661,37 @@
         <v>200</v>
       </c>
       <c r="M24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3">
         <v>1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>300</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
       </c>
       <c r="Q24" s="3">
+        <v>300</v>
+      </c>
+      <c r="R24" s="3">
         <v>400</v>
-      </c>
-      <c r="R24" s="3">
-        <v>300</v>
       </c>
       <c r="S24" s="3">
         <v>300</v>
       </c>
       <c r="T24" s="3">
+        <v>300</v>
+      </c>
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1100</v>
+        <v>-13500</v>
       </c>
       <c r="E26" s="3">
         <v>-1100</v>
       </c>
       <c r="F26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-3800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2900</v>
-      </c>
-      <c r="T26" s="3">
-        <v>1400</v>
       </c>
       <c r="U26" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1100</v>
+        <v>-13000</v>
       </c>
       <c r="E27" s="3">
         <v>-1100</v>
       </c>
       <c r="F27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-3800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,13 +2121,16 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2070,111 +2139,117 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-500</v>
       </c>
       <c r="M32" s="3">
         <v>-500</v>
       </c>
       <c r="N32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-600</v>
       </c>
       <c r="Q32" s="3">
         <v>-600</v>
       </c>
       <c r="R32" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="S32" s="3">
         <v>-700</v>
       </c>
       <c r="T32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1100</v>
+        <v>-13000</v>
       </c>
       <c r="E33" s="3">
         <v>-1100</v>
       </c>
       <c r="F33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-3800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1100</v>
+        <v>-13000</v>
       </c>
       <c r="E35" s="3">
         <v>-1100</v>
       </c>
       <c r="F35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-3800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E41" s="3">
         <v>23100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>32400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>40600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>42100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>37600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>35300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>34000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>35700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>31200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>31500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>28400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>29400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>27700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23200</v>
-      </c>
-      <c r="R41" s="3">
-        <v>23700</v>
       </c>
       <c r="S41" s="3">
         <v>23700</v>
       </c>
       <c r="T41" s="3">
+        <v>23700</v>
+      </c>
+      <c r="U41" s="3">
         <v>28700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2492,14 +2581,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
+      <c r="M42" s="3">
+        <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
-        <v>200</v>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P42" s="3">
         <v>200</v>
@@ -2514,352 +2603,370 @@
         <v>200</v>
       </c>
       <c r="T42" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U42" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E43" s="3">
         <v>12400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>15900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>25300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>16600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>14200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>16300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>15600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>14300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>2400</v>
       </c>
       <c r="K44" s="3">
         <v>2400</v>
       </c>
       <c r="L44" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M44" s="3">
         <v>2300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2500</v>
-      </c>
-      <c r="P44" s="3">
-        <v>2300</v>
       </c>
       <c r="Q44" s="3">
         <v>2300</v>
       </c>
       <c r="R44" s="3">
+        <v>2300</v>
+      </c>
+      <c r="S44" s="3">
         <v>1800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E45" s="3">
         <v>23800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1600</v>
-      </c>
-      <c r="S45" s="3">
-        <v>900</v>
       </c>
       <c r="T45" s="3">
         <v>900</v>
       </c>
       <c r="U45" s="3">
+        <v>900</v>
+      </c>
+      <c r="V45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E46" s="3">
         <v>63200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>59500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>57100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>60600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>58900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>61000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>61600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>59300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>57100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>56200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>61300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>52000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>47400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>44700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>42800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>41000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>43400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E47" s="3">
         <v>4700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E48" s="3">
         <v>12900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10400</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>10300</v>
       </c>
       <c r="R48" s="3">
         <v>10300</v>
@@ -2868,36 +2975,39 @@
         <v>10300</v>
       </c>
       <c r="T48" s="3">
+        <v>10300</v>
+      </c>
+      <c r="U48" s="3">
         <v>10900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E49" s="3">
         <v>2300</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2200</v>
       </c>
       <c r="F49" s="3">
         <v>2200</v>
       </c>
       <c r="G49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H49" s="3">
         <v>2300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>2400</v>
       </c>
       <c r="K49" s="3">
         <v>2400</v>
@@ -2906,19 +3016,19 @@
         <v>2400</v>
       </c>
       <c r="M49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N49" s="3">
         <v>2500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>1300</v>
       </c>
       <c r="R49" s="3">
         <v>1300</v>
@@ -2927,13 +3037,16 @@
         <v>1300</v>
       </c>
       <c r="T49" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="U49" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3062,55 +3181,58 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
         <v>500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>400</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
       </c>
       <c r="I52" s="3">
+        <v>400</v>
+      </c>
+      <c r="J52" s="3">
         <v>3100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>3200</v>
       </c>
       <c r="K52" s="3">
         <v>3200</v>
       </c>
       <c r="L52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M52" s="3">
         <v>3300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4200</v>
-      </c>
-      <c r="P52" s="3">
-        <v>6200</v>
       </c>
       <c r="Q52" s="3">
         <v>6200</v>
       </c>
       <c r="R52" s="3">
+        <v>6200</v>
+      </c>
+      <c r="S52" s="3">
         <v>5800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E54" s="3">
         <v>83200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>79100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>78900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>83100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>81100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>83700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>85300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>82500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>81100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>83100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>89300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>78900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>71300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>68300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>65600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>63800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>64700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,19 +3402,20 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -3297,161 +3427,170 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E58" s="3">
         <v>2400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2300</v>
       </c>
       <c r="F58" s="3">
         <v>2300</v>
       </c>
       <c r="G58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2700</v>
-      </c>
-      <c r="R58" s="3">
-        <v>2900</v>
       </c>
       <c r="S58" s="3">
         <v>2900</v>
       </c>
       <c r="T58" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="U58" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E59" s="3">
         <v>11200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3459,58 +3598,61 @@
         <v>13800</v>
       </c>
       <c r="E60" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F60" s="3">
         <v>11300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>10000</v>
       </c>
       <c r="H60" s="3">
         <v>10000</v>
       </c>
       <c r="I60" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J60" s="3">
         <v>10500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3577,10 +3722,10 @@
         <v>1300</v>
       </c>
       <c r="E62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F62" s="3">
         <v>1200</v>
-      </c>
-      <c r="F62" s="3">
-        <v>600</v>
       </c>
       <c r="G62" s="3">
         <v>600</v>
@@ -3592,7 +3737,7 @@
         <v>600</v>
       </c>
       <c r="J62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K62" s="3">
         <v>700</v>
@@ -3604,10 +3749,10 @@
         <v>700</v>
       </c>
       <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
+        <v>700</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
@@ -3615,8 +3760,8 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E66" s="3">
         <v>16300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E72" s="3">
         <v>43200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>44300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>45400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>49300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>49100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>50900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>50400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>51500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>50800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>50100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>52000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>47400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>43800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>42500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>40200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>38300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>35400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E76" s="3">
         <v>66900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>65300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>66300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>71300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>69400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>71500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>72700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>72200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>71400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>71800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>77600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>70000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>64900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>62200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>59100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>56700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>56100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1100</v>
+        <v>-13000</v>
       </c>
       <c r="E81" s="3">
         <v>-1100</v>
       </c>
       <c r="F81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-3800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4631,28 +4829,28 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -4661,7 +4859,7 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
@@ -4676,13 +4874,16 @@
         <v>100</v>
       </c>
       <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3">
         <v>200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4000</v>
-      </c>
-      <c r="H89" s="3">
-        <v>2100</v>
       </c>
       <c r="I89" s="3">
         <v>2100</v>
       </c>
       <c r="J89" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5075,8 +5295,8 @@
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5084,8 +5304,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
@@ -5093,11 +5313,11 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3">
         <v>600</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
@@ -5117,8 +5337,11 @@
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,23 +5461,26 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -5262,40 +5491,43 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2800</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1600</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1600</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-200</v>
       </c>
       <c r="R100" s="3">
         <v>-200</v>
       </c>
       <c r="S100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T100" s="3">
         <v>-500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>6300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5621,113 +5869,119 @@
         <v>1100</v>
       </c>
       <c r="E101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TYHT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TYHT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>TYHT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E9" s="3">
         <v>3100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3300</v>
       </c>
       <c r="G9" s="3">
         <v>3300</v>
       </c>
       <c r="H9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I9" s="3">
         <v>5500</v>
-      </c>
-      <c r="I9" s="3">
-        <v>5400</v>
       </c>
       <c r="J9" s="3">
         <v>5400</v>
       </c>
       <c r="K9" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L9" s="3">
         <v>5300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>2400</v>
       </c>
       <c r="L10" s="3">
         <v>2400</v>
       </c>
       <c r="M10" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N10" s="3">
         <v>2100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,22 +1104,25 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>700</v>
+      </c>
+      <c r="E14" s="3">
         <v>2600</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1110,11 +1130,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1122,11 +1142,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>2200</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1137,8 +1157,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E17" s="3">
         <v>12500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,17 +1413,18 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1398,114 +1432,120 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>500</v>
       </c>
       <c r="N20" s="3">
         <v>500</v>
       </c>
       <c r="O20" s="3">
+        <v>500</v>
+      </c>
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>600</v>
       </c>
       <c r="R20" s="3">
         <v>600</v>
       </c>
       <c r="S20" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T20" s="3">
         <v>700</v>
       </c>
       <c r="U20" s="3">
+        <v>700</v>
+      </c>
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-13300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-3500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1100</v>
       </c>
       <c r="M21" s="3">
         <v>1100</v>
       </c>
       <c r="N21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,93 +1606,99 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
@@ -1664,34 +1710,37 @@
         <v>200</v>
       </c>
       <c r="N24" s="3">
+        <v>200</v>
+      </c>
+      <c r="O24" s="3">
         <v>1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
-      </c>
-      <c r="P24" s="3">
-        <v>300</v>
       </c>
       <c r="Q24" s="3">
         <v>300</v>
       </c>
       <c r="R24" s="3">
+        <v>300</v>
+      </c>
+      <c r="S24" s="3">
         <v>400</v>
-      </c>
-      <c r="S24" s="3">
-        <v>300</v>
       </c>
       <c r="T24" s="3">
         <v>300</v>
       </c>
       <c r="U24" s="3">
+        <v>300</v>
+      </c>
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13500</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-1100</v>
       </c>
       <c r="F26" s="3">
         <v>-1100</v>
       </c>
       <c r="G26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-3800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2900</v>
-      </c>
-      <c r="U26" s="3">
-        <v>1400</v>
       </c>
       <c r="V26" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13000</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-1100</v>
       </c>
       <c r="F27" s="3">
         <v>-1100</v>
       </c>
       <c r="G27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-3800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,17 +2191,20 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E32" s="3">
         <v>4100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2142,114 +2212,120 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-500</v>
       </c>
       <c r="N32" s="3">
         <v>-500</v>
       </c>
       <c r="O32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-600</v>
       </c>
       <c r="R32" s="3">
         <v>-600</v>
       </c>
       <c r="S32" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="T32" s="3">
         <v>-700</v>
       </c>
       <c r="U32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13000</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-1100</v>
       </c>
       <c r="F33" s="3">
         <v>-1100</v>
       </c>
       <c r="G33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-3800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13000</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-1100</v>
       </c>
       <c r="F35" s="3">
         <v>-1100</v>
       </c>
       <c r="G35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-3800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E41" s="3">
         <v>24400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>32400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>40600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>42100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>37600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>35300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>34000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>35700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>31200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>31500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>28400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>29400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>27700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>23200</v>
-      </c>
-      <c r="S41" s="3">
-        <v>23700</v>
       </c>
       <c r="T41" s="3">
         <v>23700</v>
       </c>
       <c r="U41" s="3">
+        <v>23700</v>
+      </c>
+      <c r="V41" s="3">
         <v>28700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2584,14 +2674,14 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
+      <c r="N42" s="3">
+        <v>0</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="3">
-        <v>200</v>
+      <c r="P42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q42" s="3">
         <v>200</v>
@@ -2606,370 +2696,388 @@
         <v>200</v>
       </c>
       <c r="U42" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V42" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E43" s="3">
         <v>8800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>15900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>25300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>16600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>14200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>16300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>15600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>14300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E44" s="3">
         <v>3000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2200</v>
-      </c>
-      <c r="K44" s="3">
-        <v>2400</v>
       </c>
       <c r="L44" s="3">
         <v>2400</v>
       </c>
       <c r="M44" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N44" s="3">
         <v>2300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2500</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>2300</v>
       </c>
       <c r="R44" s="3">
         <v>2300</v>
       </c>
       <c r="S44" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T44" s="3">
         <v>1800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E45" s="3">
         <v>22800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1600</v>
-      </c>
-      <c r="T45" s="3">
-        <v>900</v>
       </c>
       <c r="U45" s="3">
         <v>900</v>
       </c>
       <c r="V45" s="3">
+        <v>900</v>
+      </c>
+      <c r="W45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E46" s="3">
         <v>59000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>63200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>59500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>57100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>60600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>58900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>61000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>61600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>59300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>57100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>56200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>61300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>52000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>47400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>44700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>42800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>41000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>43400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3">
         <v>2800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E48" s="3">
         <v>9400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10400</v>
-      </c>
-      <c r="R48" s="3">
-        <v>10300</v>
       </c>
       <c r="S48" s="3">
         <v>10300</v>
@@ -2978,13 +3086,16 @@
         <v>10300</v>
       </c>
       <c r="U48" s="3">
+        <v>10300</v>
+      </c>
+      <c r="V48" s="3">
         <v>10900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2992,25 +3103,25 @@
         <v>2400</v>
       </c>
       <c r="E49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F49" s="3">
         <v>2300</v>
-      </c>
-      <c r="F49" s="3">
-        <v>2200</v>
       </c>
       <c r="G49" s="3">
         <v>2200</v>
       </c>
       <c r="H49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I49" s="3">
         <v>2300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2300</v>
-      </c>
-      <c r="K49" s="3">
-        <v>2400</v>
       </c>
       <c r="L49" s="3">
         <v>2400</v>
@@ -3019,19 +3130,19 @@
         <v>2400</v>
       </c>
       <c r="N49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O49" s="3">
         <v>2500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1400</v>
-      </c>
-      <c r="R49" s="3">
-        <v>1300</v>
       </c>
       <c r="S49" s="3">
         <v>1300</v>
@@ -3040,13 +3151,16 @@
         <v>1300</v>
       </c>
       <c r="U49" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="V49" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3184,55 +3304,58 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
         <v>500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>400</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
       </c>
       <c r="J52" s="3">
+        <v>400</v>
+      </c>
+      <c r="K52" s="3">
         <v>3100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>3200</v>
       </c>
       <c r="L52" s="3">
         <v>3200</v>
       </c>
       <c r="M52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N52" s="3">
         <v>3300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4200</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>6200</v>
       </c>
       <c r="R52" s="3">
         <v>6200</v>
       </c>
       <c r="S52" s="3">
+        <v>6200</v>
+      </c>
+      <c r="T52" s="3">
         <v>5800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>67600</v>
+      </c>
+      <c r="E54" s="3">
         <v>73700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>83200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>79100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>78900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>83100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>81100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>83700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>85300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>82500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>81100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>83100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>89300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>78900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>71300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>68300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>65600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>63800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>64700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,22 +3533,23 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -3430,43 +3561,46 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,185 +3608,194 @@
         <v>1800</v>
       </c>
       <c r="E58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F58" s="3">
         <v>2400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2300</v>
       </c>
       <c r="G58" s="3">
         <v>2300</v>
       </c>
       <c r="H58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I58" s="3">
         <v>1700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2700</v>
-      </c>
-      <c r="S58" s="3">
-        <v>2900</v>
       </c>
       <c r="T58" s="3">
         <v>2900</v>
       </c>
       <c r="U58" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="V58" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E59" s="3">
         <v>11800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13800</v>
+        <v>14400</v>
       </c>
       <c r="E60" s="3">
         <v>13800</v>
       </c>
       <c r="F60" s="3">
+        <v>13800</v>
+      </c>
+      <c r="G60" s="3">
         <v>11300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10900</v>
-      </c>
-      <c r="H60" s="3">
-        <v>10000</v>
       </c>
       <c r="I60" s="3">
         <v>10000</v>
       </c>
       <c r="J60" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K60" s="3">
         <v>10500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3725,10 +3871,10 @@
         <v>1300</v>
       </c>
       <c r="F62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G62" s="3">
         <v>1200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>600</v>
       </c>
       <c r="H62" s="3">
         <v>600</v>
@@ -3740,7 +3886,7 @@
         <v>600</v>
       </c>
       <c r="K62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L62" s="3">
         <v>700</v>
@@ -3752,10 +3898,10 @@
         <v>700</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
+        <v>700</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
@@ -3763,8 +3909,8 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E66" s="3">
         <v>15900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E72" s="3">
         <v>30200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>43200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>44300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>45400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>49300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>49100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>50900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>50400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>51500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>50800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>50100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>52000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>47400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>43800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>42500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>40200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>38300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>35400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E76" s="3">
         <v>57900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>66900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>65300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>66300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>71300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>69400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>71500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>72700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>72200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>71400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>71800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>77600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>70000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>64900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>62200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>59100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>56700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>56100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13000</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-1100</v>
       </c>
       <c r="F81" s="3">
         <v>-1100</v>
       </c>
       <c r="G81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-3800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,40 +5018,41 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
       </c>
       <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
@@ -4862,7 +5061,7 @@
         <v>200</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
@@ -4877,13 +5076,16 @@
         <v>100</v>
       </c>
       <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
         <v>200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4000</v>
-      </c>
-      <c r="I89" s="3">
-        <v>2100</v>
       </c>
       <c r="J89" s="3">
         <v>2100</v>
       </c>
       <c r="K89" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5298,8 +5519,8 @@
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5307,8 +5528,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
@@ -5316,11 +5537,11 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3">
         <v>600</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,26 +5691,29 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5494,40 +5724,43 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2800</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1600</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1600</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-400</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-200</v>
       </c>
       <c r="S100" s="3">
         <v>-200</v>
       </c>
       <c r="T100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U100" s="3">
         <v>-500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>6300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>1100</v>
       </c>
       <c r="F101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>6700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4100</v>
       </c>
     </row>
